--- a/Sonali/PythonProgramming/excel_json_file_read_wrire_s/python_sonali.xlsx
+++ b/Sonali/PythonProgramming/excel_json_file_read_wrire_s/python_sonali.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -479,14 +479,215 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pune7</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>India7</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>7897897993</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pune8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>India8</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7897897994</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pune9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>India9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7897897995</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pune10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>India10</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7897897996</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pune11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>India11</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7897897997</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pune12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>India12</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7897897998</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pune13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>India13</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7897897999</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pune14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>India14</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7897898000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pune15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>India15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7897898001</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pune16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>India16</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7897898002</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>user1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -499,11 +700,14 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="29.88671875" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1137,7 +1341,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
